--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C365D7-4FFD-4195-98E7-B4297A2F3924}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22260" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -15,9 +14,9 @@
     <definedName name="Data">Foglio1!$D:$D</definedName>
     <definedName name="Persona">Foglio1!$A:$A</definedName>
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
-    <definedName name="Tempo">Foglio1!$G:$G</definedName>
+    <definedName name="Tempo">Foglio1!$G$1:$G$1048569</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Persona</t>
   </si>
@@ -42,12 +41,36 @@
   </si>
   <si>
     <t>Tempo (min)</t>
+  </si>
+  <si>
+    <t>LucaB</t>
+  </si>
+  <si>
+    <t>GDPR</t>
+  </si>
+  <si>
+    <t>PHP/HTML/JS</t>
+  </si>
+  <si>
+    <t>Documento DB</t>
+  </si>
+  <si>
+    <t>DocProgetto</t>
+  </si>
+  <si>
+    <t>dal 12/12/2018</t>
+  </si>
+  <si>
+    <t>Analisi Requisiti</t>
+  </si>
+  <si>
+    <t>Glossario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,9 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -98,17 +125,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048569" totalsRowShown="0">
+  <autoFilter ref="E1:I1048569"/>
   <sortState ref="E2:I14">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{2DC30C39-59B9-4713-8159-3051D2B47652}" name="Persona"/>
-    <tableColumn id="4" xr3:uid="{62A38111-220C-4C01-B113-2B8D0960A9BD}" name="Progetto"/>
-    <tableColumn id="1" xr3:uid="{FAB7A0BA-4742-4D08-939D-37C27539C596}" name="Attività"/>
-    <tableColumn id="2" xr3:uid="{20FEBF9A-D56C-4A74-8AE9-05ECD7560DBB}" name="Data"/>
-    <tableColumn id="5" xr3:uid="{59ED0FF4-4529-434B-A972-2C1B87CBE876}" name="Tempo (min)"/>
+  <tableColumns count="6">
+    <tableColumn id="3" name="Persona"/>
+    <tableColumn id="7" name="Progetto"/>
+    <tableColumn id="4" name="Attività"/>
+    <tableColumn id="1" name="Data"/>
+    <tableColumn id="2" name="Tempo (min)"/>
+    <tableColumn id="5" name="Colonna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -369,18 +397,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +416,7 @@
     <col min="5" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -405,45 +433,129 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43433</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43481</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43481</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43482</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43496</v>
+      </c>
+      <c r="I7">
+        <v>240</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43497</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -1,32 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D892DDB3-5DB8-4173-9946-4167A33054BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22260" windowHeight="12585"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Attività">Foglio1!$C:$C</definedName>
-    <definedName name="Data">Foglio1!$D:$D</definedName>
-    <definedName name="Persona">Foglio1!$A:$A</definedName>
-    <definedName name="Progetto">Foglio1!$B:$B</definedName>
-    <definedName name="Tempo">Foglio1!$G$1:$G$1048569</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr dataExtractLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Persona</t>
   </si>
@@ -49,28 +52,19 @@
     <t>GDPR</t>
   </si>
   <si>
-    <t>PHP/HTML/JS</t>
-  </si>
-  <si>
-    <t>Documento DB</t>
-  </si>
-  <si>
-    <t>DocProgetto</t>
-  </si>
-  <si>
-    <t>dal 12/12/2018</t>
-  </si>
-  <si>
-    <t>Analisi Requisiti</t>
-  </si>
-  <si>
-    <t>Glossario</t>
+    <t>Documentazione</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,26 +118,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048569" totalsRowShown="0">
-  <autoFilter ref="E1:I1048569"/>
-  <sortState ref="E2:I14">
-    <sortCondition ref="H1:H1048576"/>
-  </sortState>
-  <tableColumns count="6">
-    <tableColumn id="3" name="Persona"/>
-    <tableColumn id="7" name="Progetto"/>
-    <tableColumn id="4" name="Attività"/>
-    <tableColumn id="1" name="Data"/>
-    <tableColumn id="2" name="Tempo (min)"/>
-    <tableColumn id="5" name="Colonna1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +135,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -171,7 +147,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -188,7 +164,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -218,12 +194,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -253,6 +246,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,26 +407,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
+  <dimension ref="E1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="9" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -441,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
         <v>43433</v>
@@ -450,7 +461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -458,16 +469,16 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43446</v>
       </c>
       <c r="I3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -475,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
         <v>43481</v>
@@ -484,7 +495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -492,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1">
         <v>43481</v>
@@ -501,7 +512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -509,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
         <v>43482</v>
@@ -518,7 +529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -526,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <v>43496</v>
@@ -536,7 +547,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -544,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
         <v>43497</v>
@@ -553,11 +564,79 @@
         <v>120</v>
       </c>
     </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43501</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43509</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43516</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43525</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I12">
+    <sortCondition ref="H2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D892DDB3-5DB8-4173-9946-4167A33054BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E89A74-9701-4D16-97E0-E456C9782E2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>Persona</t>
   </si>
@@ -94,10 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -414,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="E1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +425,7 @@
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -461,7 +459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -471,14 +469,14 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>43446</v>
       </c>
       <c r="I3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -495,7 +493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -512,7 +510,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -529,7 +527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -545,9 +543,8 @@
       <c r="I7">
         <v>240</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -564,7 +561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -581,7 +578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -598,7 +595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -615,7 +612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>5</v>
       </c>
@@ -631,6 +628,68 @@
       <c r="I12">
         <v>90</v>
       </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43534</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I12">

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E89A74-9701-4D16-97E0-E456C9782E2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08286B5E-26DE-4D47-9D80-FC4F5796023C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Persona</t>
   </si>
@@ -416,7 +416,7 @@
   <dimension ref="E1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,21 @@
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43553</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08286B5E-26DE-4D47-9D80-FC4F5796023C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6619E92-0B12-4EA1-A561-F896D638BF61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
   <si>
     <t>Persona</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Codice </t>
+  </si>
+  <si>
+    <t>Docuementazine</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="E1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,10 +667,38 @@
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6619E92-0B12-4EA1-A561-F896D638BF61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D0141-0373-4FD4-91D0-DFAF05B4CE89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>Persona</t>
   </si>
@@ -67,8 +67,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -419,7 +428,7 @@
   <dimension ref="E1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,40 +709,69 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H28" s="1"/>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08286B5E-26DE-4D47-9D80-FC4F5796023C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D0141-0373-4FD4-91D0-DFAF05B4CE89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>Persona</t>
   </si>
@@ -58,14 +58,25 @@
   </si>
   <si>
     <t xml:space="preserve">Codice </t>
+  </si>
+  <si>
+    <t>Docuementazine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -416,7 +428,7 @@
   <dimension ref="E1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,45 +676,102 @@
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H28" s="1"/>
     </row>
   </sheetData>
